--- a/shortage_index.xlsx
+++ b/shortage_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1mxi01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6E7B70D-8B9B-4EAE-A968-CAAB09E0ED32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560170E-ABFE-4B66-B231-37B815FBEF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{0F54B009-3114-44FC-977D-D11072E76465}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="175" formatCode="mmm\-yyyy"/>
+    <numFmt numFmtId="176" formatCode="mmm\ yyyy"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -88,7 +88,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>

--- a/shortage_index.xlsx
+++ b/shortage_index.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1mxi01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9560170E-ABFE-4B66-B231-37B815FBEF01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514C7CF-B87C-4A36-8D74-27C023EF6ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{0F54B009-3114-44FC-977D-D11072E76465}"/>
+    <workbookView xWindow="6780" yWindow="2904" windowWidth="21600" windowHeight="11436" xr2:uid="{0F54B009-3114-44FC-977D-D11072E76465}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -49,7 +49,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -88,7 +88,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,7 +431,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20" style="3" customWidth="1"/>
     <col min="2" max="2" width="10.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/shortage_index.xlsx
+++ b/shortage_index.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m1mxi01\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3514C7CF-B87C-4A36-8D74-27C023EF6ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75D44F02-788C-43D4-8DF1-A9C26AD0970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6780" yWindow="2904" windowWidth="21600" windowHeight="11436" xr2:uid="{0F54B009-3114-44FC-977D-D11072E76465}"/>
   </bookViews>
@@ -48,9 +48,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -88,7 +85,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
